--- a/results_final/sigma_HL.xlsx
+++ b/results_final/sigma_HL.xlsx
@@ -519,91 +519,91 @@
         <v>0.3905760977195454</v>
       </c>
       <c r="D2">
-        <v>0.313120636617146</v>
+        <v>0.3131446379835119</v>
       </c>
       <c r="E2">
-        <v>0.25656895408467</v>
+        <v>0.2566263846627436</v>
       </c>
       <c r="F2">
-        <v>0.2144063539444325</v>
+        <v>0.2144998003790214</v>
       </c>
       <c r="G2">
-        <v>0.1823734063202525</v>
+        <v>0.1825023953298489</v>
       </c>
       <c r="H2">
-        <v>0.15761946081789</v>
+        <v>0.1577823041570313</v>
       </c>
       <c r="I2">
-        <v>0.1381953029082517</v>
+        <v>0.1383899816667462</v>
       </c>
       <c r="J2">
-        <v>0.1227414737226887</v>
+        <v>0.1229660433071104</v>
       </c>
       <c r="K2">
-        <v>0.1102923631730862</v>
+        <v>0.1105451199145401</v>
       </c>
       <c r="L2">
-        <v>0.1001504319714023</v>
+        <v>0.1004299631481996</v>
       </c>
       <c r="M2">
-        <v>0.09180385094202283</v>
+        <v>0.0921090300157633</v>
       </c>
       <c r="N2">
-        <v>0.08487157225025733</v>
+        <v>0.08520153054751825</v>
       </c>
       <c r="O2">
-        <v>0.07906606442964209</v>
+        <v>0.07942015480707997</v>
       </c>
       <c r="P2">
-        <v>0.07416762462437733</v>
+        <v>0.0745453845776405</v>
       </c>
       <c r="Q2">
-        <v>0.07000640553199025</v>
+        <v>0.07040752307156277</v>
       </c>
       <c r="R2">
-        <v>0.06644966357573326</v>
+        <v>0.06687394710600951</v>
       </c>
       <c r="S2">
-        <v>0.06339259254680302</v>
+        <v>0.06383994496610976</v>
       </c>
       <c r="T2">
-        <v>0.06075165329448608</v>
+        <v>0.06122205006863497</v>
       </c>
       <c r="U2">
-        <v>0.0584596635174072</v>
+        <v>0.05895313429660837</v>
       </c>
       <c r="V2">
-        <v>0.0564621437926759</v>
+        <v>0.05697875709851861</v>
       </c>
       <c r="W2">
-        <v>0.05471457049074183</v>
+        <v>0.05525442102173575</v>
       </c>
       <c r="X2">
-        <v>0.05318029044858466</v>
+        <v>0.05374348860093925</v>
       </c>
       <c r="Y2">
-        <v>0.05182892345601175</v>
+        <v>0.05241558671165052</v>
       </c>
       <c r="Z2">
-        <v>0.05063512779936036</v>
+        <v>0.05124537368653206</v>
       </c>
       <c r="AA2">
-        <v>0.04957763847921907</v>
+        <v>0.05021157885868581</v>
       </c>
       <c r="AB2">
-        <v>0.04863851199218613</v>
+        <v>0.04929624846272383</v>
       </c>
       <c r="AC2">
-        <v>0.04780252888100221</v>
+        <v>0.04848414913200694</v>
       </c>
       <c r="AD2">
-        <v>0.04705671772592071</v>
+        <v>0.04776229269299197</v>
       </c>
       <c r="AE2">
-        <v>0.04638997331074494</v>
+        <v>0.04711955501310093</v>
       </c>
       <c r="AF2">
-        <v>0.04579274833796761</v>
+        <v>0.04654636829531864</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -617,91 +617,91 @@
         <v>0.260088410370062</v>
       </c>
       <c r="D3">
-        <v>0.2071988856690196</v>
+        <v>0.2072934059613841</v>
       </c>
       <c r="E3">
-        <v>0.1685988992332999</v>
+        <v>0.1688235797451259</v>
       </c>
       <c r="F3">
-        <v>0.1398373038037592</v>
+        <v>0.1402003380569558</v>
       </c>
       <c r="G3">
-        <v>0.1179999452687124</v>
+        <v>0.1184974122801898</v>
       </c>
       <c r="H3">
-        <v>0.1011348798390908</v>
+        <v>0.1017581878826259</v>
       </c>
       <c r="I3">
-        <v>0.08790688382525848</v>
+        <v>0.0886463078783661</v>
       </c>
       <c r="J3">
-        <v>0.07738470940755954</v>
+        <v>0.07823098672734831</v>
       </c>
       <c r="K3">
-        <v>0.06890711454089178</v>
+        <v>0.06985208052828469</v>
       </c>
       <c r="L3">
-        <v>0.06199672529630989</v>
+        <v>0.06303348480904625</v>
       </c>
       <c r="M3">
-        <v>0.05630357047054829</v>
+        <v>0.05742645473285549</v>
       </c>
       <c r="N3">
-        <v>0.05156739383540468</v>
+        <v>0.05277182847779292</v>
       </c>
       <c r="O3">
-        <v>0.04759207292046964</v>
+        <v>0.04887441889972999</v>
       </c>
       <c r="P3">
-        <v>0.04422798038404784</v>
+        <v>0.04558537686659454</v>
       </c>
       <c r="Q3">
-        <v>0.04135964185082948</v>
+        <v>0.04278986353442988</v>
       </c>
       <c r="R3">
-        <v>0.03889698007978181</v>
+        <v>0.04039831314778421</v>
       </c>
       <c r="S3">
-        <v>0.03676902260361571</v>
+        <v>0.03834015954030798</v>
       </c>
       <c r="T3">
-        <v>0.03491932452476673</v>
+        <v>0.03655927627372509</v>
       </c>
       <c r="U3">
-        <v>0.03330260072213887</v>
+        <v>0.03501062404170556</v>
       </c>
       <c r="V3">
-        <v>0.03188222111466135</v>
+        <v>0.03365775890019375</v>
       </c>
       <c r="W3">
-        <v>0.03062832880771875</v>
+        <v>0.03247096130998883</v>
       </c>
       <c r="X3">
-        <v>0.02951641260273056</v>
+        <v>0.03142581772348788</v>
       </c>
       <c r="Y3">
-        <v>0.02852621430117403</v>
+        <v>0.03050213541559688</v>
       </c>
       <c r="Z3">
-        <v>0.0276408850659508</v>
+        <v>0.02968310507329138</v>
       </c>
       <c r="AA3">
-        <v>0.02684632874387879</v>
+        <v>0.02895464926873415</v>
       </c>
       <c r="AB3">
-        <v>0.02613068674636927</v>
+        <v>0.02830491160072681</v>
       </c>
       <c r="AC3">
-        <v>0.02548393099035207</v>
+        <v>0.02772385316272344</v>
       </c>
       <c r="AD3">
-        <v>0.02489753997218805</v>
+        <v>0.0272029315385474</v>
       </c>
       <c r="AE3">
-        <v>0.02436423927317297</v>
+        <v>0.02673484372932818</v>
       </c>
       <c r="AF3">
-        <v>0.02387779235663151</v>
+        <v>0.02631331895715573</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.3152491828189724</v>
       </c>
       <c r="D4">
-        <v>0.2911999367259542</v>
+        <v>0.2913129724233478</v>
       </c>
       <c r="E4">
-        <v>0.2707713005330272</v>
+        <v>0.2710783240562377</v>
       </c>
       <c r="F4">
-        <v>0.2532898549286803</v>
+        <v>0.2538493031121909</v>
       </c>
       <c r="G4">
-        <v>0.2382281290459123</v>
+        <v>0.2390824886973948</v>
       </c>
       <c r="H4">
-        <v>0.2251689533608774</v>
+        <v>0.2263493084683595</v>
       </c>
       <c r="I4">
-        <v>0.2137793970296631</v>
+        <v>0.2153086049411668</v>
       </c>
       <c r="J4">
-        <v>0.2037915002918561</v>
+        <v>0.2056864271156243</v>
       </c>
       <c r="K4">
-        <v>0.194987880677882</v>
+        <v>0.197260985262617</v>
       </c>
       <c r="L4">
-        <v>0.1871908735519518</v>
+        <v>0.1898513367184872</v>
       </c>
       <c r="M4">
-        <v>0.1802542623724762</v>
+        <v>0.1833087963858294</v>
       </c>
       <c r="N4">
-        <v>0.1740569252402688</v>
+        <v>0.1775103570155564</v>
       </c>
       <c r="O4">
-        <v>0.1684979126773379</v>
+        <v>0.1723536060120471</v>
       </c>
       <c r="P4">
-        <v>0.1634926038364198</v>
+        <v>0.167752766611214</v>
       </c>
       <c r="Q4">
-        <v>0.1589696821503255</v>
+        <v>0.1636355910433559</v>
       </c>
       <c r="R4">
-        <v>0.1548687386150391</v>
+        <v>0.1599409045209441</v>
       </c>
       <c r="S4">
-        <v>0.1511383594626137</v>
+        <v>0.1566166502254799</v>
       </c>
       <c r="T4">
-        <v>0.147734590390301</v>
+        <v>0.1536183227949395</v>
       </c>
       <c r="U4">
-        <v>0.1446196955494276</v>
+        <v>0.1509077051872747</v>
       </c>
       <c r="V4">
-        <v>0.1417611487956127</v>
+        <v>0.1484518440332143</v>
       </c>
       <c r="W4">
-        <v>0.1391308091144415</v>
+        <v>0.1462222136695994</v>
       </c>
       <c r="X4">
-        <v>0.1367042429790161</v>
+        <v>0.144194030361374</v>
       </c>
       <c r="Y4">
-        <v>0.1344601646092227</v>
+        <v>0.1423456867744198</v>
       </c>
       <c r="Z4">
-        <v>0.1323799713660317</v>
+        <v>0.1406582832709155</v>
       </c>
       <c r="AA4">
-        <v>0.1304473563212057</v>
+        <v>0.1391152375845754</v>
       </c>
       <c r="AB4">
-        <v>0.1286479837547291</v>
+        <v>0.1377019582753964</v>
       </c>
       <c r="AC4">
-        <v>0.1269692162154972</v>
+        <v>0.1364055703422516</v>
       </c>
       <c r="AD4">
-        <v>0.125399884033027</v>
+        <v>0.1352146836940931</v>
       </c>
       <c r="AE4">
-        <v>0.1239300899368865</v>
+        <v>0.1341191970012006</v>
       </c>
       <c r="AF4">
-        <v>0.1225510428372184</v>
+        <v>0.133110130882779</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.4783134654375992</v>
       </c>
       <c r="D5">
-        <v>0.2776770859035444</v>
+        <v>0.2777076488005626</v>
       </c>
       <c r="E5">
-        <v>0.170146280246948</v>
+        <v>0.1702009699636623</v>
       </c>
       <c r="F5">
-        <v>0.1094508718805244</v>
+        <v>0.1095193747088475</v>
       </c>
       <c r="G5">
-        <v>0.07355693587482</v>
+        <v>0.07363165034232602</v>
       </c>
       <c r="H5">
-        <v>0.05142087808123168</v>
+        <v>0.05149717734646429</v>
       </c>
       <c r="I5">
-        <v>0.03724432429934837</v>
+        <v>0.03731968442522125</v>
       </c>
       <c r="J5">
-        <v>0.02785154536898205</v>
+        <v>0.02792474433219664</v>
       </c>
       <c r="K5">
-        <v>0.02143504521821471</v>
+        <v>0.02150561543059524</v>
       </c>
       <c r="L5">
-        <v>0.01692937338335248</v>
+        <v>0.01699726329206246</v>
       </c>
       <c r="M5">
-        <v>0.01368606292410776</v>
+        <v>0.01375143761837498</v>
       </c>
       <c r="N5">
-        <v>0.01129871486670929</v>
+        <v>0.01136184204307991</v>
       </c>
       <c r="O5">
-        <v>0.009505716277687865</v>
+        <v>0.009566902709905779</v>
       </c>
       <c r="P5">
-        <v>0.008134464906664723</v>
+        <v>0.008194022186610377</v>
       </c>
       <c r="Q5">
-        <v>0.007068481471744051</v>
+        <v>0.007126708464489556</v>
       </c>
       <c r="R5">
-        <v>0.006227508491043953</v>
+        <v>0.006284683189690538</v>
       </c>
       <c r="S5">
-        <v>0.005555175356577828</v>
+        <v>0.005611551914395541</v>
       </c>
       <c r="T5">
-        <v>0.005011181247139003</v>
+        <v>0.005066989767345516</v>
       </c>
       <c r="U5">
-        <v>0.004566237922536168</v>
+        <v>0.00462168563159516</v>
       </c>
       <c r="V5">
-        <v>0.004198734671187423</v>
+        <v>0.004254007706018457</v>
       </c>
       <c r="W5">
-        <v>0.003892499351921601</v>
+        <v>0.003947764739858186</v>
       </c>
       <c r="X5">
-        <v>0.003635270069089406</v>
+        <v>0.003690677679265734</v>
       </c>
       <c r="Y5">
-        <v>0.003417635596691899</v>
+        <v>0.003473319955125824</v>
       </c>
       <c r="Z5">
-        <v>0.003232290035276443</v>
+        <v>0.003288371959454472</v>
       </c>
       <c r="AA5">
-        <v>0.003073501332655373</v>
+        <v>0.003130089375988102</v>
       </c>
       <c r="AB5">
-        <v>0.002936727440489192</v>
+        <v>0.002993919154884301</v>
       </c>
       <c r="AC5">
-        <v>0.002818335756792612</v>
+        <v>0.002876218789965984</v>
       </c>
       <c r="AD5">
-        <v>0.002715395739653867</v>
+        <v>0.002774048786858835</v>
       </c>
       <c r="AE5">
-        <v>0.00262552397402215</v>
+        <v>0.002685017604062616</v>
       </c>
       <c r="AF5">
-        <v>0.002546767260845404</v>
+        <v>0.002607164634961738</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -905,97 +905,97 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7939057911269854</v>
+        <v>0.7939057911269858</v>
       </c>
       <c r="C6">
         <v>0.4617406340821548</v>
       </c>
       <c r="D6">
-        <v>0.2832319406419969</v>
+        <v>0.2833105989251882</v>
       </c>
       <c r="E6">
-        <v>0.1822646855466041</v>
+        <v>0.182412529442442</v>
       </c>
       <c r="F6">
-        <v>0.1224643462248167</v>
+        <v>0.1226578178423508</v>
       </c>
       <c r="G6">
-        <v>0.08554622934043477</v>
+        <v>0.08576562556517023</v>
       </c>
       <c r="H6">
-        <v>0.06188698007250833</v>
+        <v>0.06211892350459781</v>
       </c>
       <c r="I6">
-        <v>0.04620568508170369</v>
+        <v>0.04644192711125063</v>
       </c>
       <c r="J6">
-        <v>0.03549198948272293</v>
+        <v>0.0357278015507715</v>
       </c>
       <c r="K6">
-        <v>0.02796924533625028</v>
+        <v>0.02820214945770397</v>
       </c>
       <c r="L6">
-        <v>0.02255512873750137</v>
+        <v>0.02278402890726216</v>
       </c>
       <c r="M6">
-        <v>0.01857088231823197</v>
+        <v>0.01879550478114011</v>
       </c>
       <c r="N6">
-        <v>0.01557936639648598</v>
+        <v>0.01579990978355656</v>
       </c>
       <c r="O6">
-        <v>0.01329209403581245</v>
+        <v>0.01350901469990934</v>
       </c>
       <c r="P6">
-        <v>0.01151435992576724</v>
+        <v>0.01172824214527594</v>
       </c>
       <c r="Q6">
-        <v>0.01011200990074316</v>
+        <v>0.01032348862521162</v>
       </c>
       <c r="R6">
-        <v>0.008990831408635311</v>
+        <v>0.009200547257465686</v>
       </c>
       <c r="S6">
-        <v>0.008083486229950284</v>
+        <v>0.008292060153098305</v>
       </c>
       <c r="T6">
-        <v>0.007341053731665851</v>
+        <v>0.007549073562198601</v>
       </c>
       <c r="U6">
-        <v>0.006727452605162391</v>
+        <v>0.006935466723652611</v>
       </c>
       <c r="V6">
-        <v>0.006215695419131402</v>
+        <v>0.006424210597273829</v>
       </c>
       <c r="W6">
-        <v>0.005785331808848567</v>
+        <v>0.005994813439913615</v>
       </c>
       <c r="X6">
-        <v>0.005420675882292842</v>
+        <v>0.005631549509864711</v>
       </c>
       <c r="Y6">
-        <v>0.005109559406579149</v>
+        <v>0.005322212897495592</v>
       </c>
       <c r="Z6">
-        <v>0.00484244285716849</v>
+        <v>0.005057228832499872</v>
       </c>
       <c r="AA6">
-        <v>0.004611773509148243</v>
+        <v>0.00482901181176325</v>
       </c>
       <c r="AB6">
-        <v>0.004411516349860539</v>
+        <v>0.004631496427749389</v>
       </c>
       <c r="AC6">
-        <v>0.004236807412184349</v>
+        <v>0.004459790557497869</v>
       </c>
       <c r="AD6">
-        <v>0.004083694853930541</v>
+        <v>0.004309916273731188</v>
       </c>
       <c r="AE6">
-        <v>0.003948943632690328</v>
+        <v>0.004178614348115932</v>
       </c>
       <c r="AF6">
-        <v>0.003829886758638869</v>
+        <v>0.004063195340445224</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.8942357844094723</v>
       </c>
       <c r="D7">
-        <v>0.8327389713630148</v>
+        <v>0.8357929665104417</v>
       </c>
       <c r="E7">
-        <v>0.7713697488293241</v>
+        <v>0.779659337129019</v>
       </c>
       <c r="F7">
-        <v>0.7113861755403548</v>
+        <v>0.7263457547535855</v>
       </c>
       <c r="G7">
-        <v>0.6537105587904168</v>
+        <v>0.6761614147259055</v>
       </c>
       <c r="H7">
-        <v>0.5989788205222542</v>
+        <v>0.6292588998773221</v>
       </c>
       <c r="I7">
-        <v>0.5475912692055928</v>
+        <v>0.585672746772872</v>
       </c>
       <c r="J7">
-        <v>0.4997606843523553</v>
+        <v>0.5453514037363106</v>
       </c>
       <c r="K7">
-        <v>0.4555553807493081</v>
+        <v>0.5081829999034595</v>
       </c>
       <c r="L7">
-        <v>0.4149361946209035</v>
+        <v>0.4740156260454857</v>
       </c>
       <c r="M7">
-        <v>0.3777871933301196</v>
+        <v>0.4426729352432286</v>
       </c>
       <c r="N7">
-        <v>0.343940442327241</v>
+        <v>0.4139658707607247</v>
       </c>
       <c r="O7">
-        <v>0.3131954543988935</v>
+        <v>0.3877012666991255</v>
       </c>
       <c r="P7">
-        <v>0.2853340712562381</v>
+        <v>0.3636879758949667</v>
       </c>
       <c r="Q7">
-        <v>0.2601315449734208</v>
+        <v>0.3417410791935328</v>
       </c>
       <c r="R7">
-        <v>0.2373645403868775</v>
+        <v>0.3216846325911656</v>
       </c>
       <c r="S7">
-        <v>0.2168166998879645</v>
+        <v>0.3033533201402707</v>
       </c>
       <c r="T7">
-        <v>0.1982823193592138</v>
+        <v>0.2865933036957653</v>
       </c>
       <c r="U7">
-        <v>0.1815685909085824</v>
+        <v>0.2712624961140391</v>
       </c>
       <c r="V7">
-        <v>0.1664967817050431</v>
+        <v>0.2572304317267771</v>
       </c>
       <c r="W7">
-        <v>0.1529026421163741</v>
+        <v>0.244377865524729</v>
       </c>
       <c r="X7">
-        <v>0.1406362716678923</v>
+        <v>0.2325961989992164</v>
       </c>
       <c r="Y7">
-        <v>0.1295616178588605</v>
+        <v>0.2217868045009417</v>
       </c>
       <c r="Z7">
-        <v>0.1195557396173889</v>
+        <v>0.2118602999055372</v>
       </c>
       <c r="AA7">
-        <v>0.1105079328316181</v>
+        <v>0.2027358101158165</v>
       </c>
       <c r="AB7">
-        <v>0.1023187885673884</v>
+        <v>0.1943402404620527</v>
       </c>
       <c r="AC7">
-        <v>0.09489923393506054</v>
+        <v>0.1866075785439481</v>
       </c>
       <c r="AD7">
-        <v>0.08816958990182609</v>
+        <v>0.1794782348128372</v>
       </c>
       <c r="AE7">
-        <v>0.08205866862822857</v>
+        <v>0.1728984276803454</v>
       </c>
       <c r="AF7">
-        <v>0.07650292427549461</v>
+        <v>0.166819615736199</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.4920265379592854</v>
       </c>
       <c r="D8">
-        <v>0.3895203652620947</v>
+        <v>0.3906017617540192</v>
       </c>
       <c r="E8">
-        <v>0.3127015021392251</v>
+        <v>0.3152432034984265</v>
       </c>
       <c r="F8">
-        <v>0.2542756295518861</v>
+        <v>0.2583149386621001</v>
       </c>
       <c r="G8">
-        <v>0.2092261363480231</v>
+        <v>0.2146456903925764</v>
       </c>
       <c r="H8">
-        <v>0.1740465018565941</v>
+        <v>0.1806699131946466</v>
       </c>
       <c r="I8">
-        <v>0.1462483361177231</v>
+        <v>0.1538877307669776</v>
       </c>
       <c r="J8">
-        <v>0.1240405766700172</v>
+        <v>0.132518850306305</v>
       </c>
       <c r="K8">
-        <v>0.1061168655643404</v>
+        <v>0.1152767996598142</v>
       </c>
       <c r="L8">
-        <v>0.09151245633104138</v>
+        <v>0.1012191751422731</v>
       </c>
       <c r="M8">
-        <v>0.07950651930442455</v>
+        <v>0.08964673811752615</v>
       </c>
       <c r="N8">
-        <v>0.06955453258524151</v>
+        <v>0.08003441570562868</v>
       </c>
       <c r="O8">
-        <v>0.06124089226648599</v>
+        <v>0.07198345824069088</v>
       </c>
       <c r="P8">
-        <v>0.05424529225947639</v>
+        <v>0.06518782934398083</v>
       </c>
       <c r="Q8">
-        <v>0.04831859954788394</v>
+        <v>0.05941030123748695</v>
       </c>
       <c r="R8">
-        <v>0.04326535548929874</v>
+        <v>0.05446525339453681</v>
       </c>
       <c r="S8">
-        <v>0.03893095308258074</v>
+        <v>0.05020615758911515</v>
       </c>
       <c r="T8">
-        <v>0.03519214937096199</v>
+        <v>0.04651637709455656</v>
       </c>
       <c r="U8">
-        <v>0.0319499808069823</v>
+        <v>0.04330233523694947</v>
       </c>
       <c r="V8">
-        <v>0.02912442666341702</v>
+        <v>0.04048839542681149</v>
       </c>
       <c r="W8">
-        <v>0.02665035574173088</v>
+        <v>0.03801298963848024</v>
       </c>
       <c r="X8">
-        <v>0.02447442342173442</v>
+        <v>0.03582566610272167</v>
       </c>
       <c r="Y8">
-        <v>0.02255267833946354</v>
+        <v>0.03388481982854613</v>
       </c>
       <c r="Z8">
-        <v>0.02084870315454749</v>
+        <v>0.03215593465782753</v>
       </c>
       <c r="AA8">
-        <v>0.01933216033354897</v>
+        <v>0.03061021162264455</v>
       </c>
       <c r="AB8">
-        <v>0.01797764728893014</v>
+        <v>0.02922349127938889</v>
       </c>
       <c r="AC8">
-        <v>0.01676378943932811</v>
+        <v>0.02797540140309058</v>
       </c>
       <c r="AD8">
-        <v>0.01567251746069784</v>
+        <v>0.02684867865309793</v>
       </c>
       <c r="AE8">
-        <v>0.01468848803349645</v>
+        <v>0.02582862543987257</v>
       </c>
       <c r="AF8">
-        <v>0.01379861705906328</v>
+        <v>0.02490267253646274</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1199,97 +1199,97 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4895249003151677</v>
+        <v>0.4895249003151675</v>
       </c>
       <c r="C9">
-        <v>0.3533422012297989</v>
+        <v>0.3533422012297991</v>
       </c>
       <c r="D9">
-        <v>0.2631537884485305</v>
+        <v>0.2632515409741771</v>
       </c>
       <c r="E9">
-        <v>0.2015926683965095</v>
+        <v>0.2018114097060574</v>
       </c>
       <c r="F9">
-        <v>0.1584098415650804</v>
+        <v>0.158744653749502</v>
       </c>
       <c r="G9">
-        <v>0.1273630962021258</v>
+        <v>0.1278001707055778</v>
       </c>
       <c r="H9">
-        <v>0.1045391908243802</v>
+        <v>0.1050635538458801</v>
       </c>
       <c r="I9">
-        <v>0.08741909838204402</v>
+        <v>0.08801742452138432</v>
       </c>
       <c r="J9">
-        <v>0.07434136857975379</v>
+        <v>0.07500274386171205</v>
       </c>
       <c r="K9">
-        <v>0.06418539589101639</v>
+        <v>0.06490127083579784</v>
       </c>
       <c r="L9">
-        <v>0.05617963064518352</v>
+        <v>0.05694349620802604</v>
       </c>
       <c r="M9">
-        <v>0.04978265941899199</v>
+        <v>0.05058966718469204</v>
       </c>
       <c r="N9">
-        <v>0.04460782870794596</v>
+        <v>0.04545444015084427</v>
       </c>
       <c r="O9">
-        <v>0.04037448211053382</v>
+        <v>0.04125817300254882</v>
       </c>
       <c r="P9">
-        <v>0.03687580920086065</v>
+        <v>0.03779483121369684</v>
       </c>
       <c r="Q9">
-        <v>0.03395726843081937</v>
+        <v>0.03491046123278702</v>
       </c>
       <c r="R9">
-        <v>0.03150186522689594</v>
+        <v>0.03248851016358684</v>
       </c>
       <c r="S9">
-        <v>0.02941995110595881</v>
+        <v>0.03043965794562036</v>
       </c>
       <c r="T9">
-        <v>0.02764205261615068</v>
+        <v>0.02869467210328062</v>
       </c>
       <c r="U9">
-        <v>0.02611376152175883</v>
+        <v>0.02719931788659802</v>
       </c>
       <c r="V9">
-        <v>0.02479204722711737</v>
+        <v>0.02591068606596465</v>
       </c>
       <c r="W9">
-        <v>0.0236425636424607</v>
+        <v>0.02479451163311552</v>
       </c>
       <c r="X9">
-        <v>0.02263766011178144</v>
+        <v>0.02382319386021832</v>
       </c>
       <c r="Y9">
-        <v>0.02175489671634758</v>
+        <v>0.02297431867423812</v>
       </c>
       <c r="Z9">
-        <v>0.02097592493745311</v>
+        <v>0.02222954482113162</v>
       </c>
       <c r="AA9">
-        <v>0.02028563576863863</v>
+        <v>0.02157375628182261</v>
       </c>
       <c r="AB9">
-        <v>0.01967150555773545</v>
+        <v>0.02099441150065424</v>
       </c>
       <c r="AC9">
-        <v>0.01912308941381571</v>
+        <v>0.02048103947258115</v>
       </c>
       <c r="AD9">
-        <v>0.01863162572674974</v>
+        <v>0.02002484639600013</v>
       </c>
       <c r="AE9">
-        <v>0.01818972506252399</v>
+        <v>0.01961840627465365</v>
       </c>
       <c r="AF9">
-        <v>0.01779112364861203</v>
+        <v>0.01925541577409718</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1297,97 +1297,97 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.142341997113089</v>
+        <v>1.142341997113088</v>
       </c>
       <c r="C10">
         <v>0.8084302649704137</v>
       </c>
       <c r="D10">
-        <v>0.593570724295118</v>
+        <v>0.5931927903365011</v>
       </c>
       <c r="E10">
-        <v>0.4504623291088229</v>
+        <v>0.4496253410078808</v>
       </c>
       <c r="F10">
-        <v>0.3521573823972262</v>
+        <v>0.350884596490207</v>
       </c>
       <c r="G10">
-        <v>0.2827423551589044</v>
+        <v>0.2810860989698229</v>
       </c>
       <c r="H10">
-        <v>0.2325073130452108</v>
+        <v>0.2305208305023733</v>
       </c>
       <c r="I10">
-        <v>0.1953480838943559</v>
+        <v>0.1930763093779871</v>
       </c>
       <c r="J10">
-        <v>0.1673211598077989</v>
+        <v>0.1647988788959326</v>
       </c>
       <c r="K10">
-        <v>0.1458144751498816</v>
+        <v>0.1430671435970673</v>
       </c>
       <c r="L10">
-        <v>0.129057783061964</v>
+        <v>0.1261031003831323</v>
       </c>
       <c r="M10">
-        <v>0.1158258268582202</v>
+        <v>0.112675337570085</v>
       </c>
       <c r="N10">
-        <v>0.1052539541161987</v>
+        <v>0.101914434940954</v>
       </c>
       <c r="O10">
-        <v>0.09672096821689861</v>
+        <v>0.09319555273763581</v>
       </c>
       <c r="P10">
-        <v>0.08977312832073218</v>
+        <v>0.08606219097838773</v>
       </c>
       <c r="Q10">
-        <v>0.08407387974202869</v>
+        <v>0.08017572104277633</v>
       </c>
       <c r="R10">
-        <v>0.07936999941235549</v>
+        <v>0.0752813746737501</v>
       </c>
       <c r="S10">
-        <v>0.0754684110558813</v>
+        <v>0.07118493895564212</v>
       </c>
       <c r="T10">
-        <v>0.07222005760322706</v>
+        <v>0.06773653745603407</v>
       </c>
       <c r="U10">
-        <v>0.06950851815194972</v>
+        <v>0.06481917815729808</v>
       </c>
       <c r="V10">
-        <v>0.067241863682347</v>
+        <v>0.06234055690730018</v>
       </c>
       <c r="W10">
-        <v>0.06534675545095039</v>
+        <v>0.06022711604141223</v>
       </c>
       <c r="X10">
-        <v>0.06376411727625619</v>
+        <v>0.05841968615335752</v>
       </c>
       <c r="Y10">
-        <v>0.062445926349052</v>
+        <v>0.0568702532326955</v>
       </c>
       <c r="Z10">
-        <v>0.06135280839714494</v>
+        <v>0.05553953521528726</v>
       </c>
       <c r="AA10">
-        <v>0.06045221773856219</v>
+        <v>0.05439514717171132</v>
       </c>
       <c r="AB10">
-        <v>0.05971704710470377</v>
+        <v>0.05341019905831143</v>
       </c>
       <c r="AC10">
-        <v>0.05912455637460474</v>
+        <v>0.05256221447499555</v>
       </c>
       <c r="AD10">
-        <v>0.058655540159274</v>
+        <v>0.05183228986235652</v>
       </c>
       <c r="AE10">
-        <v>0.05829367584235566</v>
+        <v>0.05120443537739871</v>
       </c>
       <c r="AF10">
-        <v>0.05802500908680232</v>
+        <v>0.05066505419226217</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4482735300492182</v>
+        <v>0.4482735300492181</v>
       </c>
       <c r="C11">
-        <v>0.4042959484233921</v>
+        <v>0.4042959484233924</v>
       </c>
       <c r="D11">
-        <v>0.3682976159030948</v>
+        <v>0.3683318166840614</v>
       </c>
       <c r="E11">
-        <v>0.3385412257049308</v>
+        <v>0.3386330315314566</v>
       </c>
       <c r="F11">
-        <v>0.3137257361214685</v>
+        <v>0.3138913911266122</v>
       </c>
       <c r="G11">
-        <v>0.2928640425728082</v>
+        <v>0.293114999415603</v>
       </c>
       <c r="H11">
-        <v>0.2751980881582533</v>
+        <v>0.2755425668154421</v>
       </c>
       <c r="I11">
-        <v>0.2601390973701923</v>
+        <v>0.2605831197835712</v>
       </c>
       <c r="J11">
-        <v>0.2472249245435157</v>
+        <v>0.2477730060394622</v>
       </c>
       <c r="K11">
-        <v>0.2360892273628639</v>
+        <v>0.2367448409597135</v>
       </c>
       <c r="L11">
-        <v>0.2264389198394761</v>
+        <v>0.2272048089089185</v>
       </c>
       <c r="M11">
-        <v>0.2180374951213782</v>
+        <v>0.2189158840230731</v>
       </c>
       <c r="N11">
-        <v>0.2106925590316636</v>
+        <v>0.2116852946953615</v>
       </c>
       <c r="O11">
-        <v>0.2042464178599081</v>
+        <v>0.2053550644417119</v>
       </c>
       <c r="P11">
-        <v>0.1985689048726633</v>
+        <v>0.1997948064628515</v>
       </c>
       <c r="Q11">
-        <v>0.1935518640878332</v>
+        <v>0.194896185685996</v>
       </c>
       <c r="R11">
-        <v>0.1891048724203606</v>
+        <v>0.1905686261906248</v>
       </c>
       <c r="S11">
-        <v>0.1851518954357851</v>
+        <v>0.1867359570803434</v>
       </c>
       <c r="T11">
-        <v>0.1816286529041389</v>
+        <v>0.1833337715041854</v>
       </c>
       <c r="U11">
-        <v>0.1784805283363921</v>
+        <v>0.1803073319817228</v>
       </c>
       <c r="V11">
-        <v>0.1756608986126208</v>
+        <v>0.1776098974265954</v>
       </c>
       <c r="W11">
-        <v>0.1731297903938422</v>
+        <v>0.1752013780605051</v>
       </c>
       <c r="X11">
-        <v>0.1708527925059728</v>
+        <v>0.1730472470545803</v>
       </c>
       <c r="Y11">
-        <v>0.1688001701658259</v>
+        <v>0.1711176545198144</v>
       </c>
       <c r="Z11">
-        <v>0.1669461393833639</v>
+        <v>0.1693867020051517</v>
       </c>
       <c r="AA11">
-        <v>0.1652682692557328</v>
+        <v>0.1678318450944178</v>
       </c>
       <c r="AB11">
-        <v>0.1637469869786846</v>
+        <v>0.1664333988399217</v>
       </c>
       <c r="AC11">
-        <v>0.1623651658255762</v>
+        <v>0.1651741262213133</v>
       </c>
       <c r="AD11">
-        <v>0.1611077805090893</v>
+        <v>0.1640388940020986</v>
       </c>
       <c r="AE11">
-        <v>0.1599616175581098</v>
+        <v>0.1630143835871363</v>
       </c>
       <c r="AF11">
-        <v>0.158915030841945</v>
+        <v>0.1620888469940722</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1496,94 +1496,94 @@
         <v>0.4920378988480285</v>
       </c>
       <c r="C12">
-        <v>0.4047685500301601</v>
+        <v>0.40476855003016</v>
       </c>
       <c r="D12">
-        <v>0.3387379167168051</v>
+        <v>0.3389676038658977</v>
       </c>
       <c r="E12">
-        <v>0.2879093269664192</v>
+        <v>0.2884797461717395</v>
       </c>
       <c r="F12">
-        <v>0.248164138407501</v>
+        <v>0.2491222686998037</v>
       </c>
       <c r="G12">
-        <v>0.2166374946442546</v>
+        <v>0.2179962703291666</v>
       </c>
       <c r="H12">
-        <v>0.1913007262294961</v>
+        <v>0.1930556369675795</v>
       </c>
       <c r="I12">
-        <v>0.1706933219962836</v>
+        <v>0.1728315806649115</v>
       </c>
       <c r="J12">
-        <v>0.1537475528325716</v>
+        <v>0.1562531071945805</v>
       </c>
       <c r="K12">
-        <v>0.139671640096736</v>
+        <v>0.1425278465313159</v>
       </c>
       <c r="L12">
-        <v>0.1278706092165271</v>
+        <v>0.1310615899336159</v>
       </c>
       <c r="M12">
-        <v>0.1178918257839264</v>
+        <v>0.1214030887365406</v>
       </c>
       <c r="N12">
-        <v>0.1093869627633489</v>
+        <v>0.1132056148064556</v>
       </c>
       <c r="O12">
-        <v>0.1020850739528526</v>
+        <v>0.1061998163939904</v>
       </c>
       <c r="P12">
-        <v>0.09577328277907961</v>
+        <v>0.1001742973306893</v>
       </c>
       <c r="Q12">
-        <v>0.09028276359374969</v>
+        <v>0.09496154987686319</v>
       </c>
       <c r="R12">
-        <v>0.08547844810850053</v>
+        <v>0.09042764669281203</v>
       </c>
       <c r="S12">
-        <v>0.08125138532362726</v>
+        <v>0.08646460453941882</v>
       </c>
       <c r="T12">
-        <v>0.07751301305626124</v>
+        <v>0.08298466872337996</v>
       </c>
       <c r="U12">
-        <v>0.07419082137327696</v>
+        <v>0.07991599340344865</v>
       </c>
       <c r="V12">
-        <v>0.07122503980420419</v>
+        <v>0.07719934673307215</v>
       </c>
       <c r="W12">
-        <v>0.06856608480569894</v>
+        <v>0.07478557575142565</v>
       </c>
       <c r="X12">
-        <v>0.06617257692750819</v>
+        <v>0.07263363969287855</v>
       </c>
       <c r="Y12">
-        <v>0.06400978858234732</v>
+        <v>0.07070907228493123</v>
       </c>
       <c r="Z12">
-        <v>0.06204841995978096</v>
+        <v>0.068982770493206</v>
       </c>
       <c r="AA12">
-        <v>0.06026362696014136</v>
+        <v>0.06743003364292245</v>
       </c>
       <c r="AB12">
-        <v>0.05863424412626798</v>
+        <v>0.06602979601515244</v>
       </c>
       <c r="AC12">
-        <v>0.05714215952473776</v>
+        <v>0.06476401001813449</v>
       </c>
       <c r="AD12">
-        <v>0.05577180883471022</v>
+        <v>0.06361714734661691</v>
       </c>
       <c r="AE12">
-        <v>0.05450976356356846</v>
+        <v>0.0625757931977865</v>
       </c>
       <c r="AF12">
-        <v>0.05334439404580429</v>
+        <v>0.06162831433838268</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1597,91 +1597,91 @@
         <v>0.4784334037231907</v>
       </c>
       <c r="D13">
-        <v>0.4149526102030281</v>
+        <v>0.416411418817671</v>
       </c>
       <c r="E13">
-        <v>0.3607309350859668</v>
+        <v>0.3644465517255663</v>
       </c>
       <c r="F13">
-        <v>0.3143624022920386</v>
+        <v>0.3206971660548508</v>
       </c>
       <c r="G13">
-        <v>0.2746530827366082</v>
+        <v>0.2836895870328247</v>
       </c>
       <c r="H13">
-        <v>0.240591575595589</v>
+        <v>0.2522396228708381</v>
       </c>
       <c r="I13">
-        <v>0.2113225704051345</v>
+        <v>0.225391676905862</v>
       </c>
       <c r="J13">
-        <v>0.1861235622818963</v>
+        <v>0.2023713582103429</v>
       </c>
       <c r="K13">
-        <v>0.1643846017939476</v>
+        <v>0.1825484753248879</v>
       </c>
       <c r="L13">
-        <v>0.1455908534984898</v>
+        <v>0.1654080381779134</v>
       </c>
       <c r="M13">
-        <v>0.1293076852632737</v>
+        <v>0.1505274543939891</v>
       </c>
       <c r="N13">
-        <v>0.1151679944655195</v>
+        <v>0.1375585317439245</v>
       </c>
       <c r="O13">
-        <v>0.1028614832279794</v>
+        <v>0.1262132215978961</v>
       </c>
       <c r="P13">
-        <v>0.09212561359926187</v>
+        <v>0.1162522839644015</v>
       </c>
       <c r="Q13">
-        <v>0.08273799876052886</v>
+        <v>0.1074762419333927</v>
       </c>
       <c r="R13">
-        <v>0.07451001391437687</v>
+        <v>0.09971813633217504</v>
       </c>
       <c r="S13">
-        <v>0.06728143799483094</v>
+        <v>0.09283770087316889</v>
       </c>
       <c r="T13">
-        <v>0.06091596328383298</v>
+        <v>0.08671666210387828</v>
       </c>
       <c r="U13">
-        <v>0.05529743367371362</v>
+        <v>0.08125493315419677</v>
       </c>
       <c r="V13">
-        <v>0.05032669336521319</v>
+        <v>0.07636752021425464</v>
       </c>
       <c r="W13">
-        <v>0.04591894619984009</v>
+        <v>0.07198199934560766</v>
       </c>
       <c r="X13">
-        <v>0.04200154171783876</v>
+        <v>0.06803645126481105</v>
       </c>
       <c r="Y13">
-        <v>0.03851211761873115</v>
+        <v>0.06447776514197015</v>
       </c>
       <c r="Z13">
-        <v>0.03539703982787088</v>
+        <v>0.06126024075019932</v>
       </c>
       <c r="AA13">
-        <v>0.03261009109502531</v>
+        <v>0.0583444326465276</v>
       </c>
       <c r="AB13">
-        <v>0.03011136721516074</v>
+        <v>0.05569619134904657</v>
       </c>
       <c r="AC13">
-        <v>0.02786634679347115</v>
+        <v>0.05328586538034004</v>
       </c>
       <c r="AD13">
-        <v>0.02584510617869069</v>
+        <v>0.05108763509747233</v>
       </c>
       <c r="AE13">
-        <v>0.02402165593846091</v>
+        <v>0.04907895482819211</v>
       </c>
       <c r="AF13">
-        <v>0.02237337920151255</v>
+        <v>0.04724008429414212</v>
       </c>
     </row>
   </sheetData>
